--- a/help/distant_consult.xlsx
+++ b/help/distant_consult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки_временные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="svod" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,6 @@
     <t>СПб ГБУЗ "Городская поликлиника №86"</t>
   </si>
   <si>
-    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №86"»</t>
-  </si>
-  <si>
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №6"</t>
   </si>
   <si>
@@ -657,6 +654,9 @@
   </si>
   <si>
     <t>Из столбца 5: Сотрудник МФЦ, привлекаемые к работе, чел__17</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №86"</t>
   </si>
 </sst>
 </file>
@@ -1188,58 +1188,58 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" s="18">
         <f>COUNTA(B3:B500)</f>
@@ -1304,9 +1304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>90</v>
@@ -1607,10 +1607,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1629,10 +1629,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,10 +1706,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,10 +1728,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,10 +1739,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,10 +1750,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,10 +1772,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,10 +1794,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>17</v>
@@ -1827,7 +1827,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>16</v>
@@ -1838,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>169</v>

--- a/help/distant_consult.xlsx
+++ b/help/distant_consult.xlsx
@@ -17,7 +17,7 @@
     <sheet name="эталон" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">эталон!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">эталон!$A$1:$C$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -248,9 +248,6 @@
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Детская городская поликлиника №49" Пушкинского района</t>
   </si>
   <si>
-    <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР СЕМЕЙНОЙ МЕДИЦИНЫ "21 ВЕК"</t>
-  </si>
-  <si>
     <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКИЙ ЦЕНТР ЭКО- БЕЗОПАСНОСТЬ"</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
     <t>СПб ГБУЗ "Городская поликлиника №27"</t>
   </si>
   <si>
-    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №56 "</t>
-  </si>
-  <si>
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №51"</t>
   </si>
   <si>
@@ -657,6 +651,12 @@
   </si>
   <si>
     <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №86"</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургское государственное бюджетное учреждение здравоохранения "Городская поликлиника №56"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Центр Семейной Медицины "XXI век"</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,197 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1188,63 +1378,63 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:BB1000">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1274,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E2" s="18">
         <f>COUNTA(B3:B500)</f>
@@ -1283,18 +1473,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1305,8 +1495,8 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,13 +1508,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1525,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,10 +1555,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1390,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1398,10 +1588,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>18</v>
@@ -1423,7 +1613,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1624,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,7 +1635,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,7 +1646,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1464,10 +1654,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,10 +1665,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,7 +1690,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1511,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1723,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,10 +1742,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,10 +1764,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,7 +1789,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,10 +1797,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1621,7 +1811,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,10 +1819,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,7 +1866,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,7 +1877,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,7 +1888,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,10 +1896,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,7 +1910,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,10 +1918,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,10 +1929,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,10 +1940,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,7 +1954,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,10 +1962,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,7 +1976,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,10 +1984,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>17</v>
@@ -1819,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,7 +2017,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>16</v>
@@ -1838,10 +2028,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1852,7 +2042,7 @@
         <v>71</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,7 +2053,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,7 +2064,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,10 +2083,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1904,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,7 +2108,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,10 +2116,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,10 +2127,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,7 +2152,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,7 +2163,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,7 +2174,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1995,7 +2185,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +2196,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2207,7 @@
         <v>49</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,10 +2215,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,7 +2229,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,7 +2240,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2058,10 +2248,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2072,7 +2262,7 @@
         <v>63</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2080,10 +2270,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2094,7 +2284,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2105,7 +2295,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2113,10 +2303,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2127,7 +2317,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2138,7 +2328,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2146,10 +2336,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2160,7 +2350,7 @@
         <v>66</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2168,10 +2358,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2182,7 +2372,7 @@
         <v>62</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2193,7 +2383,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2204,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2405,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,10 +2413,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2234,10 +2424,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2248,7 +2438,7 @@
         <v>69</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2256,26 +2446,26 @@
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="9"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="9"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="9"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
@@ -2328,10 +2518,38 @@
       <c r="C99" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <autoFilter ref="A1:C89"/>
+  <conditionalFormatting sqref="B1:B4 B90:B1048576 B58:B86 B48:B56 B6:B46">
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="B5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
